--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니엔 국경 내, 이동도시 월루몽드, 의사당의 임시 객실
+    <t xml:space="preserve">라이타니아 국경 내, 이동도시 월루몽드, 의사당의 임시 객실
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Wipe that “we’re all going to die” look off your face. Keep an open mind for once.
+    <t xml:space="preserve">[name="Severin"]  Wipe that 'we’re all going to die' look off your face. Keep an open mind for once.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  How is it that I’ve lived in that house for years, but everyone still calls me “outsider?”
+    <t xml:space="preserve">[name="Biederman"]  How is it that I’ve lived in that house for years, but everyone still calls me 'outsider?'
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  But we’re out of options now. At least we can be sure that, after this, Wolumonde will get enough “attention.”
+    <t xml:space="preserve">[name="???"]  But we’re out of options now. At least we can be sure that, after this, Wolumonde will get enough 'attention.'
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  And like I said, you won’t even have to kill the Infected yourself. Your biggest crime will be “conspiracy” or “aiding and abetting.” It’s nothing.
+    <t xml:space="preserve">[name="???"]  And like I said, you won’t even have to kill the Infected yourself. Your biggest crime will be 'conspiracy' or 'aiding and abetting.' It’s nothing.
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  And I have you to thank for that. My original idea was just to hand “this” over to some indignant non-infected and wait for something to happen.
+    <t xml:space="preserve">[name="???"]  And I have you to thank for that. My original idea was just to hand 'this' over to some indignant non-infected and wait for something to happen.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
@@ -1512,11 +1512,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Wipe that 'we’re all going to die' look off your face. Keep an open mind for once.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You can stay here and rest. There’s always room for someone to cause trouble in the Rathaus parlor.
+    <t xml:space="preserve">[name="Severin"]  Wipe that 'we're all going to die' look off your face. Keep an open mind for once.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You can stay here and rest. There's always room for someone to cause trouble in the Rathaus parlor.
 </t>
   </si>
   <si>
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It’s bad. You don’t want to know.
+    <t xml:space="preserve">[name="Severin"]  It's bad. You don't want to know.
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Of course, it’s not that they left it alone. They just couldn’t break it. High temperature heat marks all over it.
+    <t xml:space="preserve">[name="Severin"]  Of course, it's not that they left it alone. They just couldn't break it. High temperature heat marks all over it.
 </t>
   </si>
   <si>
@@ -1548,15 +1548,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  How is it that I’ve lived in that house for years, but everyone still calls me 'outsider?'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  It’s not like that. We’re a trade town. There’s no xenophobia in Wolumonde. It’s just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  I’m allergic to smoke.
+    <t xml:space="preserve">[name="Biederman"]  How is it that I've lived in that house for years, but everyone still calls me 'outsider?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  It's not like that. We're a trade town. There's no xenophobia in Wolumonde. It's just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  I'm allergic to smoke.
 </t>
   </si>
   <si>
@@ -1564,11 +1564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But take my advice: don’t show your face out there. It was just a flesh wound this time. But who knows what they have in store for you next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You know there are no Gendarmerie stationed in Wolumonde right now. And Tatjana’s men are only a militia at best. No one can control them if things really get out of hand.
+    <t xml:space="preserve">[name="Severin"]  But take my advice: don't show your face out there. It was just a flesh wound this time. But who knows what they have in store for you next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You know there are no Gendarmerie stationed in Wolumonde right now. And Tatjana's men are only a militia at best. No one can control them if things really get out of hand.
 </t>
   </si>
   <si>
@@ -1576,19 +1576,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I didn’t know one wedding could go on for so long.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  All right, get some rest. That’s all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  It’s not your fault. We all know that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  Catastrophes can’t be accurately predicted...
+    <t xml:space="preserve">[name="Severin"]  I didn't know one wedding could go on for so long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  All right, get some rest. That's all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  It's not your fault. We all know that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  Catastrophes can't be accurately predicted...
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If the other towns can’t provide help in time, winter will come, and we’ll starve.
+    <t xml:space="preserve">If the other towns can't provide help in time, winter will come, and we'll starve.
 </t>
   </si>
   <si>
@@ -1628,11 +1628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No, it’s not my fault.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This isn’t my fault.
+    <t xml:space="preserve">No, it's not my fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This isn't my fault.
 </t>
   </si>
   <si>
@@ -1644,31 +1644,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I heard Wolumonde’s Catastrophe Messenger is staying here? Anyone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s a voice I’ve never heard before. A young lady.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And she knows I’m a Catastrophe Messenger.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severin is right. I shouldn’t show my face.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So it’s better if I just pretend I’m not here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Dr. Atro, Biederman hasn’t been seen for days.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  That makes sense. After the way those people beat him like that, I wouldn’t expect to see much of him either.
+    <t xml:space="preserve">[name="???"]  I heard Wolumonde's Catastrophe Messenger is staying here? Anyone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a voice I've never heard before. A young lady.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And she knows I'm a Catastrophe Messenger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severin is right. I shouldn't show my face.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So it's better if I just pretend I'm not here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Dr. Atro, Biederman hasn't been seen for days.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  That makes sense. After the way those people beat him like that, I wouldn't expect to see much of him either.
 </t>
   </si>
   <si>
@@ -1692,11 +1692,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Biederman, you’re in there, aren’t you? I don’t know the layout of the room, but do step away from the door!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  If you can’t avoid it, just block. Cross your arms!
+    <t xml:space="preserve">[name="???"]  Biederman, you're in there, aren't you? I don't know the layout of the room, but do step away from the door!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  If you can't avoid it, just block. Cross your arms!
 </t>
   </si>
   <si>
@@ -1720,7 +1720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Right... she’s taking advantage of my guilt. She has no other use for a disgraced Catastrophe Messenger like me.
+    <t xml:space="preserve">Right... she's taking advantage of my guilt. She has no other use for a disgraced Catastrophe Messenger like me.
 </t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I guess. At least, that’s what I tell myself.
+    <t xml:space="preserve">I guess. At least, that's what I tell myself.
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s late.
+    <t xml:space="preserve">It's late.
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">See? They still look at me like I’m a plague.
+    <t xml:space="preserve">See? They still look at me like I'm a plague.
 </t>
   </si>
   <si>
@@ -1760,11 +1760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  So many traveling merchants couldn’t escape the Catastrophe and ended up trapped in Wolumonde. We really need help from someone like you, who knows about Catastrophes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Some stupid townsfolk have done bad things, I know. But you’ve been here a long time, Biederman. You must understand.
+    <t xml:space="preserve">[name="Tatjana"]  So many traveling merchants couldn't escape the Catastrophe and ended up trapped in Wolumonde. We really need help from someone like you, who knows about Catastrophes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Some stupid townsfolk have done bad things, I know. But you've been here a long time, Biederman. You must understand.
 </t>
   </si>
   <si>
@@ -1780,11 +1780,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I have to help Atro move boxes tomorrow. I’d better turn in early today.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Hey, Biederman. You’re working hard. It’s doing a lot to help us clear up those nasty rumors.
+    <t xml:space="preserve">I have to help Atro move boxes tomorrow. I'd better turn in early today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Hey, Biederman. You're working hard. It's doing a lot to help us clear up those nasty rumors.
 </t>
   </si>
   <si>
@@ -1796,7 +1796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  Did you say you’re clearing up the rumors?
+    <t xml:space="preserve">[name="Biederman"]  Did you say you're clearing up the rumors?
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Tangentially, I’d like you to help us too. After all, Dr. Atro is an outsider, and you’re one of us.
+    <t xml:space="preserve">[name="Severin"]  Tangentially, I'd like you to help us too. After all, Dr. Atro is an outsider, and you're one of us.
 </t>
   </si>
   <si>
@@ -1812,39 +1812,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Sure, fine. We’ll be implementing an emergency supply rationing program soon, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  There’s a problem with the supplies in Zwölftontechnik Strasse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We have a lot of new Infected refugees, mostly merchants and travelers who couldn’t escape the Catastrophe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They couldn’t get over the Great Rift. It’s full of active Originium crystals. They had no choice but to catch up to the town.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  Wolumonde doesn’t have enough to feed all those mouths...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We couldn’t just leave them to die. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  So we took them all over to Zwölftontechnik Strasse for now. For housing, they’re getting by in makeshift tents, but food...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We still have to prioritize our legal residents of Wolumonde. And then, it’s only humanitarian relief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  That’s reasonable. They’ll understand.
+    <t xml:space="preserve">[name="Severin"]  Sure, fine. We'll be implementing an emergency supply rationing program soon, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  There's a problem with the supplies in Zwölftontechnik Strasse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We have a lot of new Infected refugees, mostly merchants and travelers who couldn't escape the Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They couldn't get over the Great Rift. It's full of active Originium crystals. They had no choice but to catch up to the town.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  Wolumonde doesn't have enough to feed all those mouths...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We couldn't just leave them to die. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  So we took them all over to Zwölftontechnik Strasse for now. For housing, they're getting by in makeshift tents, but food...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We still have to prioritize our legal residents of Wolumonde. And then, it's only humanitarian relief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  That's reasonable. They'll understand.
 </t>
   </si>
   <si>
@@ -1852,11 +1852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  A letter? Who’s been in my room? Severin?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  It’s...
+    <t xml:space="preserve">[name="Biederman"]  A letter? Who's been in my room? Severin?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  It's...
 </t>
   </si>
   <si>
@@ -1864,11 +1864,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  Who’s there?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Don’t open the door. Just listen to me.
+    <t xml:space="preserve">[name="Biederman"]  Who's there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Don't open the door. Just listen to me.
 </t>
   </si>
   <si>
@@ -1876,11 +1876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Hey now, don’t be so on edge. We’re just trying to salvage the situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Look, I didn’t do so well either. I should have come to Wolumonde sooner. And I failed.
+    <t xml:space="preserve">[name="???"]  Hey now, don't be so on edge. We're just trying to salvage the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Look, I didn't do so well either. I should have come to Wolumonde sooner. And I failed.
 </t>
   </si>
   <si>
@@ -1892,11 +1892,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  But that’s all in the past. Let’s talk about the present.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  Whatever. I know your plan. But you didn’t need to call me.
+    <t xml:space="preserve">[name="???"]  But that's all in the past. Let's talk about the present.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  Whatever. I know your plan. But you didn't need to call me.
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  You don’t mean...
+    <t xml:space="preserve">[name="Biederman"]  You don't mean...
 </t>
   </si>
   <si>
@@ -1916,15 +1916,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  You can’t drag innocent people into your plan like this! Atro’s a good doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I know, of course. Who hasn’t been shackled by morality and conscience?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  But we’re out of options now. At least we can be sure that, after this, Wolumonde will get enough 'attention.'
+    <t xml:space="preserve">[name="Biederman"]  You can't drag innocent people into your plan like this! Atro's a good doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I know, of course. Who hasn't been shackled by morality and conscience?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  But we're out of options now. At least we can be sure that, after this, Wolumonde will get enough 'attention.'
 </t>
   </si>
   <si>
@@ -1932,11 +1932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Oh no... Rhodes Island doesn’t even rank, at least on the surface, among our many partners.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  We can’t expect them to save an entire town.
+    <t xml:space="preserve">[name="???"]  Oh no... Rhodes Island doesn't even rank, at least on the surface, among our many partners.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  We can't expect them to save an entire town.
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  *Sigh*, sometimes I can’t tell if they’re so corrupt that they don’t care about the plight of the people, or if they’re just so far off the ground that they can’t even see it.
+    <t xml:space="preserve">[name="???"]  *Sigh*, sometimes I can't tell if they're so corrupt that they don't care about the plight of the people, or if they're just so far off the ground that they can't even see it.
 </t>
   </si>
   <si>
@@ -1960,15 +1960,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Not to mention, there’s a rather unusual group of Infected floating around Wolumonde. They’re armed, they’re rebels, and they’re bound to bring a fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  And so, it’s up to us to carve a path that gets as few people killed as possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Don’t worry. We don’t have to the dirty work ourselves. Maybe a jealous youth, maybe a stubborn cobbler. Then, all it takes is a spark to light the fire...
+    <t xml:space="preserve">[name="???"]  Not to mention, there's a rather unusual group of Infected floating around Wolumonde. They're armed, they're rebels, and they're bound to bring a fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  And so, it's up to us to carve a path that gets as few people killed as possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Don't worry. We don't have to the dirty work ourselves. Maybe a jealous youth, maybe a stubborn cobbler. Then, all it takes is a spark to light the fire...
 </t>
   </si>
   <si>
@@ -1984,23 +1984,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Hey, this is an easy moral choice to make. I won’t even hesitate. Not for a second.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Unless I’m killing all the good guys to save all the bad guys. But lord knows who’s good and who’s bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  What’s more, don’t get me wrong. I’m not going to hide behind a curtain and pay lip service to sacrifice when I’m not willing to die myself. What kind of conspirator would I be?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I know the deal. I deserve to die. This will be my one, final sacrifice. I’ll give myself closure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’m going to die in this riot. I’ve earned it.
+    <t xml:space="preserve">[name="???"]  Hey, this is an easy moral choice to make. I won't even hesitate. Not for a second.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Unless I'm killing all the good guys to save all the bad guys. But lord knows who's good and who's bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  What's more, don't get me wrong. I'm not going to hide behind a curtain and pay lip service to sacrifice when I'm not willing to die myself. What kind of conspirator would I be?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I know the deal. I deserve to die. This will be my one, final sacrifice. I'll give myself closure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'm going to die in this riot. I've earned it.
 </t>
   </si>
   <si>
@@ -2008,27 +2008,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Oh, right, and if you agree to participate, you’re going to die too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  But don’t worry. But any objective measure, you will have helped Wolumonde. You’ll have atoned for your sins, and subjectively paid for your crimes with your own death. Two for one. Pretty great deal, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  And like I said, you won’t even have to kill the Infected yourself. Your biggest crime will be 'conspiracy' or 'aiding and abetting.' It’s nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Everyone sins. For some, it’s a sin of omission. So many people sin that way...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  They’re all so nice until they realize it. That’s when they turn desperate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  So I’ll make it a lot easier and just kill myself.
+    <t xml:space="preserve">[name="???"]  Oh, right, and if you agree to participate, you're going to die too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  But don't worry. But any objective measure, you will have helped Wolumonde. You'll have atoned for your sins, and subjectively paid for your crimes with your own death. Two for one. Pretty great deal, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  And like I said, you won't even have to kill the Infected yourself. Your biggest crime will be 'conspiracy' or 'aiding and abetting.' It's nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Everyone sins. For some, it's a sin of omission. So many people sin that way...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  They're all so nice until they realize it. That's when they turn desperate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  So I'll make it a lot easier and just kill myself.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It’s all about saving lives. More lives.
+    <t xml:space="preserve">[name="???"]  It's all about saving lives. More lives.
 </t>
   </si>
   <si>
@@ -2048,11 +2048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">There are ice crystals on the ground. It looks like it wasn’t easy to get here. His plan in the nearby city had mostly failed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But, I don’t care much about his earlier plans. He’s not going after Rhodes Island on his own. But he is right.
+    <t xml:space="preserve">There are ice crystals on the ground. It looks like it wasn't easy to get here. His plan in the nearby city had mostly failed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But, I don't care much about his earlier plans. He's not going after Rhodes Island on his own. But he is right.
 </t>
   </si>
   <si>
@@ -2068,15 +2068,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This wasn’t my fault in the first place. And Dr. Atro is good to me. I don’t need to atone for some dumb hypothetical...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I... I don’t need to. Right. There won’t be any uprising. Wolumonde will get through this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have to help Dr. Atro move boxes tomorrow... and I’ll tell her about it tomorrow. As long as there’s no mass uprising, everything he said was just bullshit.
+    <t xml:space="preserve">This wasn't my fault in the first place. And Dr. Atro is good to me. I don't need to atone for some dumb hypothetical...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I... I don't need to. Right. There won't be any uprising. Wolumonde will get through this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to help Dr. Atro move boxes tomorrow... and I'll tell her about it tomorrow. As long as there's no mass uprising, everything he said was just bullshit.
 </t>
   </si>
   <si>
@@ -2084,7 +2084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No, at least she can be spared. There’s no need to make a sacrifice of Dr. Atro.
+    <t xml:space="preserve">No, at least she can be spared. There's no need to make a sacrifice of Dr. Atro.
 </t>
   </si>
   <si>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  So you didn’t leave. You’re like a ghost.
+    <t xml:space="preserve">[name="Biederman"]  So you didn't leave. You're like a ghost.
 </t>
   </si>
   <si>
@@ -2104,11 +2104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  If you want to stir up trouble, you can do it without Atro’s death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Ooh... will you help me? You really don’t want anything to happen to that doctor, do you? 
+    <t xml:space="preserve">[name="Biederman"]  If you want to stir up trouble, you can do it without Atro's death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Ooh... will you help me? You really don't want anything to happen to that doctor, do you? 
 </t>
   </si>
   <si>
@@ -2124,19 +2124,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Don’t look at me like that. It’s not like you can’t save that doctor, if you really want to.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  How are you so certain that things are going to go in the worst possible direction, Thor? You’ve always been such a nice boy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Because it has to happen. It won’t be the first time either. Before, I just watched. But now I’m in it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  You should talk to your father, and the little girl with you. You shouldn’t be so...
+    <t xml:space="preserve">[name="???"]  Don't look at me like that. It's not like you can't save that doctor, if you really want to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  How are you so certain that things are going to go in the worst possible direction, Thor? You've always been such a nice boy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Because it has to happen. It won't be the first time either. Before, I just watched. But now I'm in it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  You should talk to your father, and the little girl with you. You shouldn't be so...
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  But don’t underestimate the violence brewing in Wolumonde. The worst possible violence.
+    <t xml:space="preserve">[name="???"]  But don't underestimate the violence brewing in Wolumonde. The worst possible violence.
 </t>
   </si>
   <si>
@@ -2160,11 +2160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  No, you’re not. When the time comes, in order to get one side to compromise as quickly as possible, you will offer to help the other side.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  I don’t need to, Thorwald. No matter who you have in mind, you’re now an accomplice to a capital crime.
+    <t xml:space="preserve">[name="???"]  No, you're not. When the time comes, in order to get one side to compromise as quickly as possible, you will offer to help the other side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  I don't need to, Thorwald. No matter who you have in mind, you're now an accomplice to a capital crime.
 </t>
   </si>
   <si>
@@ -2176,7 +2176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Biederman"]  That’s the core of an Arts unit. Where did you get it?
+    <t xml:space="preserve">[name="Biederman"]  That's the core of an Arts unit. Where did you get it?
 </t>
   </si>
   <si>
@@ -2184,19 +2184,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  When it’s done, I’ll be waiting there for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  At my grave. Ha ha... it’s so close.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Biederman"]  You’re scared.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’m always scared.
+    <t xml:space="preserve">[name="???"]  When it's done, I'll be waiting there for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  At my grave. Ha ha... it's so close.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Biederman"]  You're scared.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'm always scared.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_sub-1-1_end.xlsx
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아 국경 내, 이동도시 월루몽드, 의사당의 임시 객실
+    <t xml:space="preserve">라이타니엔 국경 내, 이동도시 월루몽드, 의사당의 임시 객실
 </t>
   </si>
   <si>
